--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AVERAGE_10_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>-0.1945316142291066</v>
       </c>
-      <c r="BA2">
-        <v>-0.1945316142291066</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,16 +845,13 @@
       <c r="AZ3">
         <v>0.01036281805721223</v>
       </c>
-      <c r="BA3">
-        <v>0.01036281805721223</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
       <c r="B4">
-        <v>-0.04457422898017915</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C4">
         <v>0.5511400986501143</v>
@@ -1012,16 +1003,13 @@
       <c r="AZ4">
         <v>0.5511400986501143</v>
       </c>
-      <c r="BA4">
-        <v>0.5511400986501143</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
       <c r="B5">
-        <v>-0.05080439817647642</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C5">
         <v>-0.00954355574783676</v>
@@ -1173,19 +1161,16 @@
       <c r="AZ5">
         <v>-0.00954355574783676</v>
       </c>
-      <c r="BA5">
-        <v>-0.00954355574783676</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
       <c r="B6">
-        <v>-0.06052901654273318</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C6">
-        <v>0.2919478052601759</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D6">
         <v>-0.2555446171936915</v>
@@ -1334,19 +1319,16 @@
       <c r="AZ6">
         <v>-0.2555446171936915</v>
       </c>
-      <c r="BA6">
-        <v>-0.2555446171936915</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>-0.06801528797425663</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C7">
-        <v>0.1543254109646204</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D7">
         <v>-0.6066619314321233</v>
@@ -1495,22 +1477,19 @@
       <c r="AZ7">
         <v>-0.6066619314321233</v>
       </c>
-      <c r="BA7">
-        <v>-0.6066619314321233</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
       <c r="B8">
-        <v>-0.06801528797425663</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C8">
-        <v>0.06950680785193752</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D8">
-        <v>-0.4447492365997521</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E8">
         <v>-0.2442342285147824</v>
@@ -1656,22 +1635,19 @@
       <c r="AZ8">
         <v>-0.2442342285147824</v>
       </c>
-      <c r="BA8">
-        <v>-0.2442342285147824</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
       <c r="B9">
-        <v>-0.06801528797425663</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C9">
-        <v>-0.0509953789204512</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D9">
-        <v>-0.3230553737681023</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E9">
         <v>0.02800526388762647</v>
@@ -1817,25 +1793,22 @@
       <c r="AZ9">
         <v>0.02800526388762647</v>
       </c>
-      <c r="BA9">
-        <v>0.02800526388762647</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
       <c r="B10">
-        <v>-0.06801528797425663</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C10">
-        <v>-0.1549158603858515</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D10">
-        <v>-0.3568897768025528</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E10">
-        <v>0.006588265617235273</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F10">
         <v>0.2989632083880984</v>
@@ -1978,25 +1951,22 @@
       <c r="AZ10">
         <v>0.2989632083880984</v>
       </c>
-      <c r="BA10">
-        <v>0.2989632083880984</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
       <c r="B11">
-        <v>-0.06801528797425663</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C11">
-        <v>0.07414405905564604</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D11">
-        <v>-0.181052576562871</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E11">
-        <v>-0.05097382177085291</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F11">
         <v>0.1898416505639596</v>
@@ -2139,28 +2109,25 @@
       <c r="AZ11">
         <v>0.1898416505639596</v>
       </c>
-      <c r="BA11">
-        <v>0.1898416505639596</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
       <c r="B12">
-        <v>-0.06801528797425663</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C12">
-        <v>0.07414405905564604</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D12">
-        <v>-0.181052576562871</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E12">
-        <v>0.01754894364723292</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F12">
-        <v>0.1568486727439599</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G12">
         <v>1.064747157129269</v>
@@ -2300,28 +2267,25 @@
       <c r="AZ12">
         <v>1.064747157129269</v>
       </c>
-      <c r="BA12">
-        <v>1.064747157129269</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
       <c r="B13">
-        <v>-0.06801528797425663</v>
+        <v>-0.09208439808594718</v>
       </c>
       <c r="C13">
-        <v>0.07414405905564604</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D13">
-        <v>-0.181052576562871</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E13">
-        <v>0.1254679695395859</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F13">
-        <v>0.1263123640092446</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G13">
         <v>0.4880328864343323</v>
@@ -2461,31 +2425,25 @@
       <c r="AZ13">
         <v>0.4880328864343323</v>
       </c>
-      <c r="BA13">
-        <v>0.4880328864343323</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="B14">
-        <v>-0.06801528797425663</v>
-      </c>
       <c r="C14">
-        <v>0.07414405905564604</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D14">
-        <v>-0.181052576562871</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E14">
-        <v>0.1134223377380077</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F14">
-        <v>0.1057032405672295</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G14">
-        <v>0.02088116545797869</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H14">
         <v>-0.007236080745368856</v>
@@ -2622,31 +2580,25 @@
       <c r="AZ14">
         <v>-0.007236080745368856</v>
       </c>
-      <c r="BA14">
-        <v>-0.007236080745368856</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="B15">
-        <v>-0.06801528797425663</v>
-      </c>
       <c r="C15">
-        <v>0.07414405905564604</v>
+        <v>0.08935693668259578</v>
       </c>
       <c r="D15">
-        <v>-0.181052576562871</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E15">
-        <v>-0.08759253742295987</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F15">
-        <v>-0.02103099327283155</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G15">
-        <v>0.1759178937024192</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H15">
         <v>0.02799058711211094</v>
@@ -2783,34 +2735,25 @@
       <c r="AZ15">
         <v>0.02799058711211094</v>
       </c>
-      <c r="BA15">
-        <v>0.02799058711211094</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="B16">
-        <v>-0.06801528797425663</v>
-      </c>
-      <c r="C16">
-        <v>0.07414405905564604</v>
-      </c>
       <c r="D16">
-        <v>-0.181052576562871</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E16">
-        <v>-0.08759253742295987</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F16">
-        <v>-0.02103099327283155</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G16">
-        <v>0.1652132346915069</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I16">
         <v>0.3</v>
@@ -2944,31 +2887,25 @@
       <c r="AZ16">
         <v>0.3</v>
       </c>
-      <c r="BA16">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.07414405905564604</v>
-      </c>
       <c r="D17">
-        <v>-0.181052576562871</v>
+        <v>-0.08412980031590528</v>
       </c>
       <c r="E17">
-        <v>-0.08759253742295987</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F17">
-        <v>-0.02103099327283155</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G17">
-        <v>0.1198349834155632</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H17">
-        <v>0.02053778061749256</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I17">
         <v>0.05221426964547216</v>
@@ -3102,34 +3039,25 @@
       <c r="AZ17">
         <v>0.05221426964547216</v>
       </c>
-      <c r="BA17">
-        <v>0.05221426964547216</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.07414405905564604</v>
-      </c>
-      <c r="D18">
-        <v>-0.181052576562871</v>
-      </c>
       <c r="E18">
-        <v>-0.08759253742295987</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F18">
-        <v>-0.02103099327283155</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G18">
-        <v>0.1402734837222156</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I18">
-        <v>0.06398694658965987</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J18">
         <v>-0.3</v>
@@ -3260,34 +3188,25 @@
       <c r="AZ18">
         <v>-0.3</v>
       </c>
-      <c r="BA18">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.07414405905564604</v>
-      </c>
-      <c r="D19">
-        <v>-0.181052576562871</v>
-      </c>
       <c r="E19">
-        <v>-0.08759253742295987</v>
+        <v>-0.09012597081532345</v>
       </c>
       <c r="F19">
-        <v>-0.02103099327283155</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G19">
-        <v>0.269171092739297</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H19">
-        <v>0.231088245338752</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I19">
-        <v>0.1</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J19">
         <v>-0.3</v>
@@ -3418,37 +3337,25 @@
       <c r="AZ19">
         <v>-0.3</v>
       </c>
-      <c r="BA19">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.07414405905564604</v>
-      </c>
-      <c r="D20">
-        <v>-0.181052576562871</v>
-      </c>
-      <c r="E20">
-        <v>-0.08759253742295987</v>
-      </c>
       <c r="F20">
-        <v>-0.02103099327283155</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G20">
-        <v>0.269171092739297</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H20">
-        <v>0.231088245338752</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I20">
-        <v>0.02507719589523449</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J20">
-        <v>-0.2</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K20">
         <v>-0.4</v>
@@ -3576,31 +3483,25 @@
       <c r="AZ20">
         <v>-0.4</v>
       </c>
-      <c r="BA20">
-        <v>-0.4</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.08759253742295987</v>
-      </c>
       <c r="F21">
-        <v>-0.02103099327283155</v>
+        <v>-0.02322029075705296</v>
       </c>
       <c r="G21">
-        <v>0.269171092739297</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H21">
-        <v>0.231088245338752</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I21">
-        <v>0.0589879961961709</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J21">
-        <v>0.01279511133247557</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K21">
         <v>-0.2</v>
@@ -3728,34 +3629,25 @@
       <c r="AZ21">
         <v>-0.2</v>
       </c>
-      <c r="BA21">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.08759253742295987</v>
-      </c>
-      <c r="F22">
-        <v>-0.02103099327283155</v>
-      </c>
       <c r="G22">
-        <v>0.269171092739297</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H22">
-        <v>0.231088245338752</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I22">
-        <v>0.03586850329953273</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J22">
-        <v>0.002774356509152032</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K22">
-        <v>-0.1</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L22">
         <v>-0.4</v>
@@ -3880,34 +3772,25 @@
       <c r="AZ22">
         <v>-0.4</v>
       </c>
-      <c r="BA22">
-        <v>-0.4</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.08759253742295987</v>
-      </c>
-      <c r="F23">
-        <v>-0.02103099327283155</v>
-      </c>
       <c r="G23">
-        <v>0.269171092739297</v>
+        <v>0.1504745932164966</v>
       </c>
       <c r="H23">
-        <v>0.231088245338752</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I23">
-        <v>0.1144922304427144</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J23">
-        <v>0.007657113028817409</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K23">
-        <v>-0.2</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L23">
         <v>0.1</v>
@@ -4032,37 +3915,25 @@
       <c r="AZ23">
         <v>0.1</v>
       </c>
-      <c r="BA23">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.08759253742295987</v>
-      </c>
-      <c r="F24">
-        <v>-0.02103099327283155</v>
-      </c>
-      <c r="G24">
-        <v>0.269171092739297</v>
-      </c>
       <c r="H24">
-        <v>0.231088245338752</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I24">
-        <v>0.1144922304427144</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J24">
-        <v>0.007657113028817409</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K24">
-        <v>-0.09999999999999998</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4184,31 +4055,25 @@
       <c r="AZ24">
         <v>0</v>
       </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.269171092739297</v>
-      </c>
       <c r="H25">
-        <v>0.231088245338752</v>
+        <v>0.09839038956294306</v>
       </c>
       <c r="I25">
-        <v>0.1144922304427144</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J25">
-        <v>0.007657113028817409</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K25">
-        <v>0.007919166537585065</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L25">
-        <v>-0.008748979543006241</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4330,34 +4195,25 @@
       <c r="AZ25">
         <v>0</v>
       </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.269171092739297</v>
-      </c>
-      <c r="H26">
-        <v>0.231088245338752</v>
-      </c>
       <c r="I26">
-        <v>0.1144922304427144</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J26">
-        <v>0.007657113028817409</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K26">
-        <v>-0.001142224879497111</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L26">
-        <v>-0.05454827038232091</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M26">
-        <v>-0.09999999999999998</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N26">
         <v>0.2000000000000001</v>
@@ -4476,34 +4332,25 @@
       <c r="AZ26">
         <v>0.2000000000000001</v>
       </c>
-      <c r="BA26">
-        <v>0.2000000000000001</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.269171092739297</v>
-      </c>
-      <c r="H27">
-        <v>0.231088245338752</v>
-      </c>
       <c r="I27">
-        <v>0.1144922304427144</v>
+        <v>0.2198324713900718</v>
       </c>
       <c r="J27">
-        <v>0.007657113028817409</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K27">
-        <v>-0.154100878869644</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L27">
-        <v>-0.1511082980279855</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4622,37 +4469,25 @@
       <c r="AZ27">
         <v>0</v>
       </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.269171092739297</v>
-      </c>
-      <c r="H28">
-        <v>0.231088245338752</v>
-      </c>
-      <c r="I28">
-        <v>0.1144922304427144</v>
-      </c>
       <c r="J28">
-        <v>0.007657113028817409</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K28">
-        <v>-0.154100878869644</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L28">
-        <v>-0.1511082980279855</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="O28">
         <v>0.09999999999999998</v>
@@ -4768,31 +4603,25 @@
       <c r="AZ28">
         <v>0.09999999999999998</v>
       </c>
-      <c r="BA28">
-        <v>0.09999999999999998</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.1144922304427144</v>
-      </c>
       <c r="J29">
-        <v>0.007657113028817409</v>
+        <v>0.1814553678527874</v>
       </c>
       <c r="K29">
-        <v>-0.154100878869644</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L29">
-        <v>-0.1511082980279855</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M29">
-        <v>-0.00411440483221992</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N29">
-        <v>-0.02018331725016664</v>
+        <v>-0.13</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4908,34 +4737,25 @@
       <c r="AZ29">
         <v>0</v>
       </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.1144922304427144</v>
-      </c>
-      <c r="J30">
-        <v>0.007657113028817409</v>
-      </c>
       <c r="K30">
-        <v>-0.154100878869644</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L30">
-        <v>-0.1511082980279855</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M30">
-        <v>-0.01322280403366449</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N30">
-        <v>-0.05002087136693156</v>
+        <v>-0.13</v>
       </c>
       <c r="O30">
-        <v>-0.1000000000000001</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P30">
         <v>-0.2</v>
@@ -5048,34 +4868,25 @@
       <c r="AZ30">
         <v>-0.2</v>
       </c>
-      <c r="BA30">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.1144922304427144</v>
-      </c>
-      <c r="J31">
-        <v>0.007657113028817409</v>
-      </c>
       <c r="K31">
-        <v>-0.154100878869644</v>
+        <v>0.07257488195758155</v>
       </c>
       <c r="L31">
-        <v>-0.1511082980279855</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M31">
-        <v>-0.06173372088658845</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N31">
-        <v>-0.03702041886170983</v>
+        <v>-0.13</v>
       </c>
       <c r="O31">
-        <v>-0.1000000000000001</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P31">
         <v>0.09999999999999998</v>
@@ -5188,37 +4999,25 @@
       <c r="AZ31">
         <v>0.09999999999999998</v>
       </c>
-      <c r="BA31">
-        <v>0.09999999999999998</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.1144922304427144</v>
-      </c>
-      <c r="J32">
-        <v>0.007657113028817409</v>
-      </c>
-      <c r="K32">
-        <v>-0.154100878869644</v>
-      </c>
       <c r="L32">
-        <v>-0.1511082980279855</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M32">
-        <v>-0.06173372088658845</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N32">
-        <v>-0.03702041886170983</v>
+        <v>-0.13</v>
       </c>
       <c r="O32">
-        <v>-0.1000000000000001</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Q32">
         <v>0.2999999999999999</v>
@@ -5328,31 +5127,25 @@
       <c r="AZ32">
         <v>0.2999999999999999</v>
       </c>
-      <c r="BA32">
-        <v>0.2999999999999999</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>-0.154100878869644</v>
-      </c>
       <c r="L33">
-        <v>-0.1511082980279855</v>
+        <v>-0.1127031223987786</v>
       </c>
       <c r="M33">
-        <v>-0.06173372088658845</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N33">
-        <v>-0.03702041886170983</v>
+        <v>-0.13</v>
       </c>
       <c r="O33">
-        <v>-0.03806149545539017</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P33">
-        <v>-0.02921599406344</v>
+        <v>-0.01</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -5462,34 +5255,25 @@
       <c r="AZ33">
         <v>0</v>
       </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>-0.154100878869644</v>
-      </c>
-      <c r="L34">
-        <v>-0.1511082980279855</v>
-      </c>
       <c r="M34">
-        <v>-0.06173372088658845</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N34">
-        <v>-0.03702041886170983</v>
+        <v>-0.13</v>
       </c>
       <c r="O34">
-        <v>-0.05597415627301838</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P34">
-        <v>-0.07087068323321011</v>
+        <v>-0.01</v>
       </c>
       <c r="Q34">
-        <v>0.09999999999999998</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R34">
         <v>-0.3040828537337272</v>
@@ -5596,34 +5380,25 @@
       <c r="AZ34">
         <v>-0.3040828537337272</v>
       </c>
-      <c r="BA34">
-        <v>-0.3040828537337272</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>-0.154100878869644</v>
-      </c>
-      <c r="L35">
-        <v>-0.1511082980279855</v>
-      </c>
       <c r="M35">
-        <v>-0.06173372088658845</v>
+        <v>-0.1147785730354528</v>
       </c>
       <c r="N35">
-        <v>-0.03702041886170983</v>
+        <v>-0.13</v>
       </c>
       <c r="O35">
-        <v>-0.009403565172840883</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P35">
-        <v>0.009991332270334991</v>
+        <v>-0.01</v>
       </c>
       <c r="Q35">
-        <v>0.09999999999999998</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -5730,37 +5505,25 @@
       <c r="AZ35">
         <v>0</v>
       </c>
-      <c r="BA35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>-0.154100878869644</v>
-      </c>
-      <c r="L36">
-        <v>-0.1511082980279855</v>
-      </c>
-      <c r="M36">
-        <v>-0.06173372088658845</v>
-      </c>
       <c r="N36">
-        <v>-0.03702041886170983</v>
+        <v>-0.13</v>
       </c>
       <c r="O36">
-        <v>-0.009403565172840883</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P36">
-        <v>0.009991332270334991</v>
+        <v>-0.01</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R36">
-        <v>0.09999999999999998</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S36">
         <v>0.1</v>
@@ -5864,31 +5627,25 @@
       <c r="AZ36">
         <v>0.1</v>
       </c>
-      <c r="BA36">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>-0.06173372088658845</v>
-      </c>
       <c r="N37">
-        <v>-0.03702041886170983</v>
+        <v>-0.13</v>
       </c>
       <c r="O37">
-        <v>-0.009403565172840883</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P37">
-        <v>0.009991332270334991</v>
+        <v>-0.01</v>
       </c>
       <c r="Q37">
-        <v>0.052030371842539</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R37">
-        <v>0.09999999999999998</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S37">
         <v>0.09999999999999998</v>
@@ -5992,34 +5749,25 @@
       <c r="AZ37">
         <v>0.09999999999999998</v>
       </c>
-      <c r="BA37">
-        <v>0.09999999999999998</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>-0.06173372088658845</v>
-      </c>
-      <c r="N38">
-        <v>-0.03702041886170983</v>
-      </c>
       <c r="O38">
-        <v>-0.009403565172840883</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P38">
-        <v>0.009991332270334991</v>
+        <v>-0.01</v>
       </c>
       <c r="Q38">
-        <v>0.002523310772044929</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T38">
         <v>-0.015690968608089</v>
@@ -6120,34 +5868,25 @@
       <c r="AZ38">
         <v>-0.015690968608089</v>
       </c>
-      <c r="BA38">
-        <v>-0.015690968608089</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>-0.06173372088658845</v>
-      </c>
-      <c r="N39">
-        <v>-0.03702041886170983</v>
-      </c>
       <c r="O39">
-        <v>-0.009403565172840883</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="P39">
-        <v>0.009991332270334991</v>
+        <v>-0.01</v>
       </c>
       <c r="Q39">
-        <v>0.04545536826145837</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T39">
         <v>0.05096808056002433</v>
@@ -6248,37 +5987,25 @@
       <c r="AZ39">
         <v>0.05096808056002433</v>
       </c>
-      <c r="BA39">
-        <v>0.05096808056002433</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>-0.06173372088658845</v>
-      </c>
-      <c r="N40">
-        <v>-0.03702041886170983</v>
-      </c>
-      <c r="O40">
-        <v>-0.009403565172840883</v>
-      </c>
       <c r="P40">
-        <v>0.009991332270334991</v>
+        <v>-0.01</v>
       </c>
       <c r="Q40">
-        <v>0.04545536826145837</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T40">
-        <v>0.04414465364515863</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U40">
         <v>0.2151519277310885</v>
@@ -6376,31 +6103,25 @@
       <c r="AZ40">
         <v>0.2151519277310885</v>
       </c>
-      <c r="BA40">
-        <v>0.2151519277310885</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>-0.009403565172840883</v>
-      </c>
       <c r="P41">
-        <v>0.009991332270334991</v>
+        <v>-0.01</v>
       </c>
       <c r="Q41">
-        <v>0.04545536826145837</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R41">
-        <v>0.01751885518434304</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T41">
-        <v>0.03030290081591508</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U41">
         <v>0.1068236533051979</v>
@@ -6498,34 +6219,25 @@
       <c r="AZ41">
         <v>0.1068236533051979</v>
       </c>
-      <c r="BA41">
-        <v>0.1068236533051979</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>-0.009403565172840883</v>
-      </c>
-      <c r="P42">
-        <v>0.009991332270334991</v>
-      </c>
       <c r="Q42">
-        <v>0.04545536826145837</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R42">
-        <v>0.02008227882880098</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T42">
-        <v>0.01184793300521725</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U42">
-        <v>-0.0003364362792013242</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V42">
         <v>0.04431897453975564</v>
@@ -6620,37 +6332,28 @@
       <c r="AZ42">
         <v>0.04431897453975564</v>
       </c>
-      <c r="BA42">
-        <v>0.04431897453975564</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>-0.009403565172840883</v>
-      </c>
-      <c r="P43">
-        <v>0.009991332270334991</v>
-      </c>
       <c r="Q43">
-        <v>0.04545536826145837</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="R43">
-        <v>-0.00664817197205832</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S43">
-        <v>-0.01040828537337272</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T43">
-        <v>0.02327989630046334</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U43">
-        <v>0.03292025297595114</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V43">
-        <v>0.2138655158257279</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W43">
         <v>0.09123448438175896</v>
@@ -6742,40 +6445,28 @@
       <c r="AZ43">
         <v>0.09123448438175896</v>
       </c>
-      <c r="BA43">
-        <v>0.09123448438175896</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>-0.009403565172840883</v>
-      </c>
-      <c r="P44">
-        <v>0.009991332270334991</v>
-      </c>
-      <c r="Q44">
-        <v>0.04545536826145837</v>
-      </c>
       <c r="R44">
-        <v>-0.00664817197205832</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S44">
-        <v>-0.01040828537337272</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T44">
-        <v>0.02344496900398435</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U44">
-        <v>0.02575449428797294</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V44">
-        <v>0.1144278353286429</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W44">
-        <v>0.124389953244618</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X44">
         <v>-0.2716600973116948</v>
@@ -6864,37 +6555,31 @@
       <c r="AZ44">
         <v>-0.2716600973116948</v>
       </c>
-      <c r="BA44">
-        <v>-0.2716600973116948</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.04545536826145837</v>
-      </c>
       <c r="R45">
-        <v>-0.00664817197205832</v>
+        <v>0.01959171462662727</v>
       </c>
       <c r="S45">
-        <v>-0.01040828537337272</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T45">
-        <v>0.03245728503599371</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U45">
-        <v>0.03488473191715469</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V45">
-        <v>0.03650542552267405</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W45">
-        <v>0.04003491532627107</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X45">
-        <v>0.06994643943514478</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y45">
         <v>0.228981402283536</v>
@@ -6980,40 +6665,31 @@
       <c r="AZ45">
         <v>0.228981402283536</v>
       </c>
-      <c r="BA45">
-        <v>0.228981402283536</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.04545536826145837</v>
-      </c>
-      <c r="R46">
-        <v>-0.00664817197205832</v>
-      </c>
       <c r="S46">
-        <v>-0.01040828537337272</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T46">
-        <v>0.01048914795523898</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U46">
-        <v>0.01372976374571738</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V46">
-        <v>0.03243477352088853</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W46">
-        <v>0.0297951016611645</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X46">
-        <v>0.03016339292225023</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y46">
-        <v>0.1467255298080423</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z46">
         <v>0.2</v>
@@ -7096,43 +6772,34 @@
       <c r="AZ46">
         <v>0.2</v>
       </c>
-      <c r="BA46">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.04545536826145837</v>
-      </c>
-      <c r="R47">
-        <v>-0.00664817197205832</v>
-      </c>
       <c r="S47">
-        <v>-0.01040828537337272</v>
+        <v>0.01959171462662726</v>
       </c>
       <c r="T47">
-        <v>0.03112438977139067</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U47">
-        <v>0.05642054996358165</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V47">
-        <v>0.03534911699263182</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W47">
-        <v>0.03826086969812709</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X47">
-        <v>0.02381525897082531</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y47">
-        <v>0.02254901660146819</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z47">
-        <v>0.1</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA47">
         <v>-0.1781284012960198</v>
@@ -7212,46 +6879,34 @@
       <c r="AZ47">
         <v>-0.1781284012960198</v>
       </c>
-      <c r="BA47">
-        <v>-0.1781284012960198</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.04545536826145837</v>
-      </c>
-      <c r="R48">
-        <v>-0.00664817197205832</v>
-      </c>
-      <c r="S48">
-        <v>-0.01040828537337272</v>
-      </c>
       <c r="T48">
-        <v>0.03112438977139067</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U48">
-        <v>0.05642054996358165</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V48">
-        <v>0.04014744127553282</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W48">
-        <v>0.04258210848358979</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X48">
-        <v>0.02593791216312963</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y48">
-        <v>0.02295008752096633</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA48">
-        <v>0.1143801122861683</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB48">
         <v>-0.3</v>
@@ -7328,46 +6983,37 @@
       <c r="AZ48">
         <v>-0.3</v>
       </c>
-      <c r="BA48">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>-0.00664817197205832</v>
-      </c>
-      <c r="S49">
-        <v>-0.01040828537337272</v>
-      </c>
       <c r="T49">
-        <v>0.03112438977139067</v>
+        <v>0.0131194258218208</v>
       </c>
       <c r="U49">
-        <v>0.05642054996358165</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V49">
-        <v>0.04843126713026435</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W49">
-        <v>0.0506216363978671</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X49">
-        <v>0.0293216455625836</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y49">
-        <v>0.01565050844723581</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA49">
-        <v>0.01909761865990667</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB49">
-        <v>0.1</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC49">
         <v>0.06505493203313417</v>
@@ -7441,49 +7087,37 @@
       <c r="AZ49">
         <v>0.06505493203313417</v>
       </c>
-      <c r="BA49">
-        <v>0.06505493203313417</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>-0.00664817197205832</v>
-      </c>
-      <c r="S50">
-        <v>-0.01040828537337272</v>
-      </c>
-      <c r="T50">
-        <v>0.03112438977139067</v>
-      </c>
       <c r="U50">
-        <v>0.05642054996358165</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V50">
-        <v>0.02835724284007007</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W50">
-        <v>0.03101920748109444</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X50">
-        <v>0.00964600976124913</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y50">
-        <v>0.001773913408160188</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA50">
-        <v>-0.007702285865510639</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC50">
-        <v>0.04363517131072919</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD50">
         <v>0.1023597690241737</v>
@@ -7554,52 +7188,40 @@
       <c r="AZ50">
         <v>0.1023597690241737</v>
       </c>
-      <c r="BA50">
-        <v>0.1023597690241737</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>-0.00664817197205832</v>
-      </c>
-      <c r="S51">
-        <v>-0.01040828537337272</v>
-      </c>
-      <c r="T51">
-        <v>0.03112438977139067</v>
-      </c>
       <c r="U51">
-        <v>0.05642054996358165</v>
+        <v>0.05531698392544945</v>
       </c>
       <c r="V51">
-        <v>0.07006612462813859</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W51">
-        <v>0.05990809045194445</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X51">
-        <v>0.01595476737302003</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y51">
-        <v>-0.003433134881331623</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA51">
-        <v>-0.009986560485465812</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC51">
-        <v>-0.01498968715888849</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD51">
-        <v>-0.05967099285329747</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE51">
         <v>-0.5425305662094128</v>
@@ -7667,55 +7289,40 @@
       <c r="AZ51">
         <v>-0.5425305662094128</v>
       </c>
-      <c r="BA51">
-        <v>-0.5425305662094128</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>-0.00664817197205832</v>
-      </c>
-      <c r="S52">
-        <v>-0.01040828537337272</v>
-      </c>
-      <c r="T52">
-        <v>0.03112438977139067</v>
-      </c>
-      <c r="U52">
-        <v>0.05642054996358165</v>
-      </c>
       <c r="V52">
-        <v>0.07006612462813859</v>
+        <v>0.02974888137942502</v>
       </c>
       <c r="W52">
-        <v>0.05990809045194445</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X52">
-        <v>0.01595476737302003</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y52">
-        <v>-0.001838410295742665</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA52">
-        <v>-0.006196789251822987</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC52">
-        <v>-0.006308568679095072</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD52">
-        <v>-0.003913561791116738</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE52">
-        <v>-0.5954290933064567</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF52">
         <v>-5.4</v>
@@ -7780,52 +7387,40 @@
       <c r="AZ52">
         <v>-5.4</v>
       </c>
-      <c r="BA52">
-        <v>-5.4</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.03112438977139067</v>
-      </c>
-      <c r="U53">
-        <v>0.05642054996358165</v>
-      </c>
-      <c r="V53">
-        <v>0.07006612462813859</v>
-      </c>
       <c r="W53">
-        <v>0.05990809045194445</v>
+        <v>0.03887232981760091</v>
       </c>
       <c r="X53">
-        <v>0.01595476737302003</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y53">
-        <v>0.0005119656599564815</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA53">
-        <v>-0.003239880232202341</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC53">
-        <v>-0.006444588016499664</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD53">
-        <v>-0.005520994775534416</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE53">
-        <v>-0.0265845122668158</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF53">
-        <v>2.3</v>
+        <v>2.03040224812923</v>
       </c>
       <c r="AG53">
         <v>2.03040224812923</v>
@@ -7887,55 +7482,40 @@
       <c r="AZ53">
         <v>2.03040224812923</v>
       </c>
-      <c r="BA53">
-        <v>2.03040224812923</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.03112438977139067</v>
-      </c>
-      <c r="U54">
-        <v>0.05642054996358165</v>
-      </c>
-      <c r="V54">
-        <v>0.07006612462813859</v>
-      </c>
-      <c r="W54">
-        <v>0.05990809045194445</v>
-      </c>
       <c r="X54">
-        <v>0.01595476737302003</v>
+        <v>0.04211460545980415</v>
       </c>
       <c r="Y54">
-        <v>-0.009977258504001996</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA54">
-        <v>-0.01503468129476704</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC54">
-        <v>-0.02105286335651008</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD54">
-        <v>-0.01737472235161669</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE54">
-        <v>0.2834573142222149</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF54">
-        <v>2.5</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG54">
-        <v>0.946995896678686</v>
+        <v>0.4339050167294337</v>
       </c>
       <c r="AH54">
         <v>0.4339050167294337</v>
@@ -7994,58 +7574,40 @@
       <c r="AZ54">
         <v>0.4339050167294337</v>
       </c>
-      <c r="BA54">
-        <v>0.4339050167294337</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.03112438977139067</v>
-      </c>
-      <c r="U55">
-        <v>0.05642054996358165</v>
-      </c>
-      <c r="V55">
-        <v>0.07006612462813859</v>
-      </c>
-      <c r="W55">
-        <v>0.05990809045194445</v>
-      </c>
-      <c r="X55">
-        <v>0.01595476737302003</v>
-      </c>
       <c r="Y55">
-        <v>0.0423893620048289</v>
+        <v>0.06501274568815775</v>
       </c>
       <c r="Z55">
-        <v>0.0528981402283536</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA55">
-        <v>0.03421705348038223</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB55">
-        <v>0.005085300098751619</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC55">
-        <v>-0.01721392010446909</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD55">
-        <v>-0.06194216344538911</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE55">
-        <v>-0.05655741081613974</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF55">
-        <v>1.1</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG55">
-        <v>0.6333722518211343</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH55">
-        <v>-0.2222184485480282</v>
+        <v>1.197090680270919</v>
       </c>
       <c r="AI55">
         <v>1.197090680270919</v>
@@ -8101,61 +7663,40 @@
       <c r="AZ55">
         <v>1.197090680270919</v>
       </c>
-      <c r="BA55">
-        <v>1.197090680270919</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.03112438977139067</v>
-      </c>
-      <c r="U56">
-        <v>0.05642054996358165</v>
-      </c>
-      <c r="V56">
-        <v>0.07006612462813859</v>
-      </c>
-      <c r="W56">
-        <v>0.05990809045194445</v>
-      </c>
-      <c r="X56">
-        <v>0.01595476737302003</v>
-      </c>
-      <c r="Y56">
-        <v>0.0423893620048289</v>
-      </c>
       <c r="Z56">
-        <v>0.0528981402283536</v>
+        <v>0.07501274568815774</v>
       </c>
       <c r="AA56">
-        <v>0.03421705348038223</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB56">
-        <v>0.005085300098751619</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC56">
-        <v>-0.009941010989604315</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD56">
-        <v>-0.007788019807438651</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE56">
-        <v>-0.01167642096244947</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF56">
-        <v>0.1</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG56">
-        <v>0.1416915465883819</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH56">
-        <v>0.2724030966903045</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI56">
-        <v>-0.08446324897183921</v>
+        <v>-0.6441697788099752</v>
       </c>
       <c r="AJ56">
         <v>-0.6441697788099752</v>
@@ -8208,58 +7749,40 @@
       <c r="AZ56">
         <v>-0.6441697788099752</v>
       </c>
-      <c r="BA56">
-        <v>-0.6441697788099752</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.07006612462813859</v>
-      </c>
-      <c r="W57">
-        <v>0.05990809045194445</v>
-      </c>
-      <c r="X57">
-        <v>0.01595476737302003</v>
-      </c>
-      <c r="Y57">
-        <v>0.0423893620048289</v>
-      </c>
-      <c r="Z57">
-        <v>0.0528981402283536</v>
-      </c>
       <c r="AA57">
-        <v>0.03421705348038223</v>
+        <v>0.04719990555855578</v>
       </c>
       <c r="AB57">
-        <v>0.005085300098751619</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC57">
-        <v>-0.009043683159125515</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD57">
-        <v>-0.008487264748053558</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE57">
-        <v>-0.0125082975625429</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG57">
-        <v>0.1058681882927397</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH57">
-        <v>-0.1057569450634666</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI57">
-        <v>-0.6706018608006168</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ57">
-        <v>-0.5669075164892119</v>
+        <v>0.4901411037136303</v>
       </c>
       <c r="AK57">
         <v>0.4901411037136303</v>
@@ -8309,61 +7832,40 @@
       <c r="AZ57">
         <v>0.4901411037136303</v>
       </c>
-      <c r="BA57">
-        <v>0.4901411037136303</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.07006612462813859</v>
-      </c>
-      <c r="W58">
-        <v>0.05990809045194445</v>
-      </c>
-      <c r="X58">
-        <v>0.01595476737302003</v>
-      </c>
-      <c r="Y58">
-        <v>0.0423893620048289</v>
-      </c>
-      <c r="Z58">
-        <v>0.0528981402283536</v>
-      </c>
-      <c r="AA58">
-        <v>0.03421705348038223</v>
-      </c>
       <c r="AB58">
-        <v>0.005085300098751619</v>
+        <v>0.01876900241936466</v>
       </c>
       <c r="AC58">
-        <v>-0.02448943151210231</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD58">
-        <v>-0.0208763097389974</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE58">
-        <v>-0.02465023573671588</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG58">
-        <v>-0.02868715489039197</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH58">
-        <v>-0.05746706018962144</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI58">
-        <v>-0.2700402338977563</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ58">
-        <v>0.00156768717003819</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK58">
-        <v>-0.2249506847449997</v>
+        <v>-0.09098140646410988</v>
       </c>
       <c r="AL58">
         <v>-0.09098140646410988</v>
@@ -8410,64 +7912,40 @@
       <c r="AZ58">
         <v>-0.09098140646410988</v>
       </c>
-      <c r="BA58">
-        <v>-0.09098140646410988</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.07006612462813859</v>
-      </c>
-      <c r="W59">
-        <v>0.05990809045194445</v>
-      </c>
-      <c r="X59">
-        <v>0.01595476737302003</v>
-      </c>
-      <c r="Y59">
-        <v>0.0423893620048289</v>
-      </c>
-      <c r="Z59">
-        <v>0.0528981402283536</v>
-      </c>
-      <c r="AA59">
-        <v>0.03421705348038223</v>
-      </c>
-      <c r="AB59">
-        <v>0.005085300098751619</v>
-      </c>
       <c r="AC59">
-        <v>-7.936496324311703E-05</v>
+        <v>0.02017768756667566</v>
       </c>
       <c r="AD59">
-        <v>-0.001815932845413616</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE59">
-        <v>-0.08190645215810104</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF59">
-        <v>0.02248841348478949</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG59">
-        <v>-0.03262007354168989</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH59">
-        <v>0.01466597809647907</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI59">
-        <v>0.03093069696832318</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ59">
-        <v>0.0440771787447094</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK59">
-        <v>0.2544192057373819</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL59">
-        <v>0.2054629753839422</v>
+        <v>-0.3952916234765647</v>
       </c>
       <c r="AM59">
         <v>-0.3952916234765647</v>
@@ -8511,67 +7989,40 @@
       <c r="AZ59">
         <v>-0.3952916234765647</v>
       </c>
-      <c r="BA59">
-        <v>-0.3952916234765647</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.07006612462813859</v>
-      </c>
-      <c r="W60">
-        <v>0.05990809045194445</v>
-      </c>
-      <c r="X60">
-        <v>0.01595476737302003</v>
-      </c>
-      <c r="Y60">
-        <v>0.0423893620048289</v>
-      </c>
-      <c r="Z60">
-        <v>0.0528981402283536</v>
-      </c>
-      <c r="AA60">
-        <v>0.03421705348038223</v>
-      </c>
-      <c r="AB60">
-        <v>0.005085300098751619</v>
-      </c>
-      <c r="AC60">
-        <v>-7.936496324311703E-05</v>
-      </c>
       <c r="AD60">
-        <v>-0.001815932845413616</v>
+        <v>0.008898471695984171</v>
       </c>
       <c r="AE60">
-        <v>-0.08190645215810104</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF60">
-        <v>0.02248841348478949</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG60">
-        <v>-0.03791634434732438</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH60">
-        <v>-0.008537658621150801</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI60">
-        <v>-0.01101407959106498</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ60">
-        <v>-0.02439884925431324</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK60">
-        <v>0.170219776601887</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL60">
-        <v>0.2246063274524341</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM60">
-        <v>0.1671904148993125</v>
+        <v>-0.2380782088493735</v>
       </c>
       <c r="AN60">
         <v>-0.2380782088493735</v>
@@ -8612,61 +8063,40 @@
       <c r="AZ60">
         <v>-0.2380782088493735</v>
       </c>
-      <c r="BA60">
-        <v>-0.2380782088493735</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.0423893620048289</v>
-      </c>
-      <c r="Z61">
-        <v>0.0528981402283536</v>
-      </c>
-      <c r="AA61">
-        <v>0.03421705348038223</v>
-      </c>
-      <c r="AB61">
-        <v>0.005085300098751619</v>
-      </c>
-      <c r="AC61">
-        <v>-7.936496324311703E-05</v>
-      </c>
-      <c r="AD61">
-        <v>-0.001815932845413616</v>
-      </c>
       <c r="AE61">
-        <v>-0.08190645215810104</v>
+        <v>-0.05603695025547689</v>
       </c>
       <c r="AF61">
-        <v>0.02248841348478949</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG61">
-        <v>-0.007767969482481984</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH61">
-        <v>0.01515543591687035</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI61">
-        <v>-0.02054413646276981</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ61">
-        <v>-0.03468524280111646</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK61">
-        <v>-0.01311832664604518</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL61">
-        <v>0.2376046120611246</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM61">
-        <v>0.2654693083104523</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN61">
-        <v>0.2921640651019387</v>
+        <v>-0.02511582766690132</v>
       </c>
       <c r="AO61">
         <v>-0.02511582766690132</v>
@@ -8704,64 +8134,40 @@
       <c r="AZ61">
         <v>-0.02511582766690132</v>
       </c>
-      <c r="BA61">
-        <v>-0.02511582766690132</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.0423893620048289</v>
-      </c>
-      <c r="Z62">
-        <v>0.0528981402283536</v>
-      </c>
-      <c r="AA62">
-        <v>0.03421705348038223</v>
-      </c>
-      <c r="AB62">
-        <v>0.005085300098751619</v>
-      </c>
-      <c r="AC62">
-        <v>-7.936496324311703E-05</v>
-      </c>
-      <c r="AD62">
-        <v>-0.001815932845413616</v>
-      </c>
-      <c r="AE62">
-        <v>-0.08190645215810104</v>
-      </c>
       <c r="AF62">
-        <v>0.02248841348478949</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG62">
-        <v>-0.008090642302314599</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH62">
-        <v>0.01505941718100196</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI62">
-        <v>0.01206373270091227</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ62">
-        <v>-0.003843466536792683</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK62">
-        <v>0.02196462944616284</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL62">
-        <v>0.221816109232675</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM62">
-        <v>0.2116880093445911</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN62">
-        <v>0.525646334868391</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO62">
-        <v>0.2460316247142956</v>
+        <v>0.6876823391013496</v>
       </c>
       <c r="AP62">
         <v>0.6876823391013496</v>
@@ -8796,67 +8202,43 @@
       <c r="AZ62">
         <v>0.6876823391013496</v>
       </c>
-      <c r="BA62">
-        <v>0.6876823391013496</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.0423893620048289</v>
-      </c>
-      <c r="Z63">
-        <v>0.0528981402283536</v>
-      </c>
-      <c r="AA63">
-        <v>0.03421705348038223</v>
-      </c>
-      <c r="AB63">
-        <v>0.005085300098751619</v>
-      </c>
-      <c r="AC63">
-        <v>-7.936496324311703E-05</v>
-      </c>
-      <c r="AD63">
-        <v>-0.001815932845413616</v>
-      </c>
-      <c r="AE63">
-        <v>-0.08190645215810104</v>
-      </c>
       <c r="AF63">
-        <v>0.02248841348478949</v>
+        <v>-0.4065520713347054</v>
       </c>
       <c r="AG63">
-        <v>0.3743247946945968</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH63">
-        <v>0.2387611080321053</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI63">
-        <v>0.2647728815074771</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ63">
-        <v>0.2433037957152921</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK63">
-        <v>0.01712819497756507</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL63">
-        <v>0.144891357622072</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM63">
-        <v>0.1025119365741192</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN63">
-        <v>0.3191108565770145</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO63">
-        <v>0.1567078746426963</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP63">
-        <v>0.09426016017752531</v>
+        <v>0.3720617293507145</v>
       </c>
       <c r="AQ63">
         <v>0.3720617293507145</v>
@@ -8888,70 +8270,43 @@
       <c r="AZ63">
         <v>0.3720617293507145</v>
       </c>
-      <c r="BA63">
-        <v>0.3720617293507145</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.0423893620048289</v>
-      </c>
-      <c r="Z64">
-        <v>0.0528981402283536</v>
-      </c>
-      <c r="AA64">
-        <v>0.03421705348038223</v>
-      </c>
-      <c r="AB64">
-        <v>0.005085300098751619</v>
-      </c>
-      <c r="AC64">
-        <v>-7.936496324311703E-05</v>
-      </c>
-      <c r="AD64">
-        <v>-0.001815932845413616</v>
-      </c>
-      <c r="AE64">
-        <v>-0.08190645215810104</v>
-      </c>
-      <c r="AF64">
-        <v>0.02248841348478949</v>
-      </c>
       <c r="AG64">
-        <v>0.3743247946945968</v>
+        <v>-0.3359955599305925</v>
       </c>
       <c r="AH64">
-        <v>0.2387611080321053</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI64">
-        <v>0.2647728815074771</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ64">
-        <v>0.2433037957152921</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK64">
-        <v>0.01471174725476715</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL64">
-        <v>0.01133467464339383</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM64">
-        <v>0.00957821079517357</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN64">
-        <v>0.1049577299700916</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO64">
-        <v>-0.05532999585862827</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP64">
-        <v>0.05424942107144015</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ64">
-        <v>-0.04186402640699205</v>
+        <v>-0.1123255314657629</v>
       </c>
       <c r="AR64">
         <v>-0.1123255314657629</v>
@@ -8980,61 +8335,43 @@
       <c r="AZ64">
         <v>-0.1123255314657629</v>
       </c>
-      <c r="BA64">
-        <v>-0.1123255314657629</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>-7.936496324311703E-05</v>
-      </c>
-      <c r="AD65">
-        <v>-0.001815932845413616</v>
-      </c>
-      <c r="AE65">
-        <v>-0.08190645215810104</v>
-      </c>
-      <c r="AF65">
-        <v>0.02248841348478949</v>
-      </c>
-      <c r="AG65">
-        <v>0.3743247946945968</v>
-      </c>
       <c r="AH65">
-        <v>0.2387611080321053</v>
+        <v>-0.2391846321318542</v>
       </c>
       <c r="AI65">
-        <v>0.2647728815074771</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ65">
-        <v>0.2433037957152921</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK65">
-        <v>0.01477978345504005</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL65">
-        <v>0.01136462962759627</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM65">
-        <v>0.009589036466973899</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN65">
-        <v>0.002036387737466394</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO65">
-        <v>0.1061398421261345</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP65">
-        <v>0.02003703068661633</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ65">
-        <v>-0.004245937762256791</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR65">
-        <v>0.04787244502181393</v>
+        <v>-0.1387895598915543</v>
       </c>
       <c r="AS65">
         <v>-0.1387895598915543</v>
@@ -9060,64 +8397,43 @@
       <c r="AZ65">
         <v>-0.1387895598915543</v>
       </c>
-      <c r="BA65">
-        <v>-0.1387895598915543</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>-7.936496324311703E-05</v>
-      </c>
-      <c r="AD66">
-        <v>-0.001815932845413616</v>
-      </c>
-      <c r="AE66">
-        <v>-0.08190645215810104</v>
-      </c>
-      <c r="AF66">
-        <v>0.02248841348478949</v>
-      </c>
-      <c r="AG66">
-        <v>0.3743247946945968</v>
-      </c>
-      <c r="AH66">
-        <v>0.2387611080321053</v>
-      </c>
       <c r="AI66">
-        <v>0.2647728815074771</v>
+        <v>-0.3236016100128518</v>
       </c>
       <c r="AJ66">
-        <v>0.2433037957152921</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK66">
-        <v>0.01485613646721295</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL66">
-        <v>0.01140350262701373</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM66">
-        <v>0.0096262989585717</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN66">
-        <v>0.002029828259684563</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO66">
-        <v>-0.09377001350213054</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP66">
-        <v>-0.02492333770823285</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ66">
-        <v>-0.01160829470291058</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR66">
-        <v>0.007654823210518802</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS66">
-        <v>-0.02286568139701101</v>
+        <v>0.1213803088128225</v>
       </c>
       <c r="AT66">
         <v>0.1213803088128225</v>
@@ -9140,67 +8456,43 @@
       <c r="AZ66">
         <v>0.1213803088128225</v>
       </c>
-      <c r="BA66">
-        <v>0.1213803088128225</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>-7.936496324311703E-05</v>
-      </c>
-      <c r="AD67">
-        <v>-0.001815932845413616</v>
-      </c>
-      <c r="AE67">
-        <v>-0.08190645215810104</v>
-      </c>
-      <c r="AF67">
-        <v>0.02248841348478949</v>
-      </c>
-      <c r="AG67">
-        <v>0.3743247946945968</v>
-      </c>
-      <c r="AH67">
-        <v>0.2387611080321053</v>
-      </c>
-      <c r="AI67">
-        <v>0.2647728815074771</v>
-      </c>
       <c r="AJ67">
-        <v>0.2433037957152921</v>
+        <v>-0.2567746595118868</v>
       </c>
       <c r="AK67">
-        <v>0.07601515662626024</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL67">
-        <v>0.1467643885899772</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM67">
-        <v>0.07795212891221498</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN67">
-        <v>0.1011735067438169</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO67">
-        <v>-0.1328506734947441</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP67">
-        <v>-0.1177361515802786</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ67">
-        <v>-0.07198578413329731</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR67">
-        <v>0.03656768315454328</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS67">
-        <v>0.04786242496979198</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT67">
-        <v>0.14972076012991</v>
+        <v>-0.07951810869463416</v>
       </c>
       <c r="AU67">
         <v>-0.07951810869463416</v>
@@ -9220,70 +8512,43 @@
       <c r="AZ67">
         <v>-0.07951810869463416</v>
       </c>
-      <c r="BA67">
-        <v>-0.07951810869463416</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>-7.936496324311703E-05</v>
-      </c>
-      <c r="AD68">
-        <v>-0.001815932845413616</v>
-      </c>
-      <c r="AE68">
-        <v>-0.08190645215810104</v>
-      </c>
-      <c r="AF68">
-        <v>0.02248841348478949</v>
-      </c>
-      <c r="AG68">
-        <v>0.3743247946945968</v>
-      </c>
-      <c r="AH68">
-        <v>0.2387611080321053</v>
-      </c>
-      <c r="AI68">
-        <v>0.2647728815074771</v>
-      </c>
-      <c r="AJ68">
-        <v>0.2433037957152921</v>
-      </c>
       <c r="AK68">
-        <v>0.07601515662626024</v>
+        <v>-0.2358728001582978</v>
       </c>
       <c r="AL68">
-        <v>0.1467643885899772</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM68">
-        <v>0.07795212891221498</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN68">
-        <v>0.1011735067438169</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO68">
-        <v>-0.1664707148753987</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP68">
-        <v>-0.08415594628777828</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ68">
-        <v>-0.08332778358683041</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR68">
-        <v>0.03352541177798907</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS68">
-        <v>0.09950343914302062</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT68">
-        <v>0.08745366667497922</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU68">
-        <v>0.009403759561997849</v>
+        <v>0.3863682696630121</v>
       </c>
       <c r="AV68">
         <v>0.3863682696630121</v>
@@ -9300,61 +8565,43 @@
       <c r="AZ68">
         <v>0.3863682696630121</v>
       </c>
-      <c r="BA68">
-        <v>0.3863682696630121</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.3743247946945968</v>
-      </c>
-      <c r="AH69">
-        <v>0.2387611080321053</v>
-      </c>
-      <c r="AI69">
-        <v>0.2647728815074771</v>
-      </c>
-      <c r="AJ69">
-        <v>0.2433037957152921</v>
-      </c>
-      <c r="AK69">
-        <v>0.07601515662626024</v>
-      </c>
       <c r="AL69">
-        <v>0.1467643885899772</v>
+        <v>-0.2819074557092676</v>
       </c>
       <c r="AM69">
-        <v>0.07795212891221498</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN69">
-        <v>0.1011735067438169</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO69">
-        <v>-0.1684586110880257</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP69">
-        <v>-0.08504876443376963</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ69">
-        <v>-0.1131798574908991</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR69">
-        <v>-0.01708030448454168</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS69">
-        <v>0.04366025772770143</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT69">
-        <v>-0.01290251450455254</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU69">
-        <v>0.01911125784178286</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV69">
-        <v>0.1356867276728378</v>
+        <v>-0.006123215295980228</v>
       </c>
       <c r="AW69">
         <v>-0.006123215295980228</v>
@@ -9368,64 +8615,43 @@
       <c r="AZ69">
         <v>-0.006123215295980228</v>
       </c>
-      <c r="BA69">
-        <v>-0.006123215295980228</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.3743247946945968</v>
-      </c>
-      <c r="AH70">
-        <v>0.2387611080321053</v>
-      </c>
-      <c r="AI70">
-        <v>0.2647728815074771</v>
-      </c>
-      <c r="AJ70">
-        <v>0.2433037957152921</v>
-      </c>
-      <c r="AK70">
-        <v>0.07601515662626024</v>
-      </c>
-      <c r="AL70">
-        <v>0.1467643885899772</v>
-      </c>
       <c r="AM70">
-        <v>0.07795212891221498</v>
+        <v>-0.3159512534966224</v>
       </c>
       <c r="AN70">
-        <v>0.1011735067438169</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO70">
-        <v>-0.1705258633492784</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP70">
-        <v>-0.08600372874886963</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ70">
-        <v>-0.06187304826598677</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR70">
-        <v>0.04008991775232901</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS70">
-        <v>0.04118292505508081</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT70">
-        <v>-0.01660026649649948</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU70">
-        <v>-0.01809258390562279</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV70">
-        <v>0.1162802086726421</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW70">
-        <v>-0.01970259187732695</v>
+        <v>0.04342916022020096</v>
       </c>
       <c r="AX70">
         <v>0.04342916022020096</v>
@@ -9436,67 +8662,43 @@
       <c r="AZ70">
         <v>0.04342916022020096</v>
       </c>
-      <c r="BA70">
-        <v>0.04342916022020096</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.3743247946945968</v>
-      </c>
-      <c r="AH71">
-        <v>0.2387611080321053</v>
-      </c>
-      <c r="AI71">
-        <v>0.2647728815074771</v>
-      </c>
-      <c r="AJ71">
-        <v>0.2433037957152921</v>
-      </c>
-      <c r="AK71">
-        <v>0.07601515662626024</v>
-      </c>
-      <c r="AL71">
-        <v>0.1467643885899772</v>
-      </c>
-      <c r="AM71">
-        <v>0.07795212891221498</v>
-      </c>
       <c r="AN71">
-        <v>0.1011735067438169</v>
+        <v>-0.2642097796423712</v>
       </c>
       <c r="AO71">
-        <v>-0.03036423583519807</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP71">
-        <v>0.0433245194611101</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ71">
-        <v>0.06465435084359898</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR71">
-        <v>0.1070932685752052</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS71">
-        <v>-0.04500250401071754</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT71">
-        <v>-0.04878197739543944</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU71">
-        <v>-0.05268839126638541</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV71">
-        <v>0.002845939268696196</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW71">
-        <v>-0.040971934992417</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX71">
-        <v>-0.030588343433577</v>
+        <v>-0.2736421272901388</v>
       </c>
       <c r="AY71">
         <v>-0.2736421272901388</v>
@@ -9504,716 +8706,299 @@
       <c r="AZ71">
         <v>-0.2736421272901388</v>
       </c>
-      <c r="BA71">
-        <v>-0.2736421272901388</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.3743247946945968</v>
-      </c>
-      <c r="AH72">
-        <v>0.2387611080321053</v>
-      </c>
-      <c r="AI72">
-        <v>0.2647728815074771</v>
-      </c>
-      <c r="AJ72">
-        <v>0.2433037957152921</v>
-      </c>
-      <c r="AK72">
-        <v>0.07601515662626024</v>
-      </c>
-      <c r="AL72">
-        <v>0.1467643885899772</v>
-      </c>
-      <c r="AM72">
-        <v>0.07795212891221498</v>
-      </c>
-      <c r="AN72">
-        <v>0.1011735067438169</v>
-      </c>
       <c r="AO72">
-        <v>-0.03036423583519807</v>
+        <v>0.3445584542677638</v>
       </c>
       <c r="AP72">
-        <v>0.0433245194611101</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ72">
-        <v>0.06465435084359898</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR72">
-        <v>0.1070932685752052</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS72">
-        <v>-0.04542403605375267</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT72">
-        <v>-0.04721862805520066</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU72">
-        <v>-0.0512784023773446</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV72">
-        <v>-0.1188927610541842</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW72">
-        <v>-0.0314060637200623</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX72">
-        <v>-0.02751936804534089</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY72">
-        <v>0.006009269086450612</v>
+        <v>-0.1489623566660376</v>
       </c>
       <c r="AZ72">
         <v>-0.1489623566660376</v>
       </c>
-      <c r="BA72">
-        <v>-0.1489623566660376</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.07601515662626024</v>
-      </c>
-      <c r="AL73">
-        <v>0.1467643885899772</v>
-      </c>
-      <c r="AM73">
-        <v>0.07795212891221498</v>
-      </c>
-      <c r="AN73">
-        <v>0.1011735067438169</v>
-      </c>
-      <c r="AO73">
-        <v>-0.03036423583519807</v>
-      </c>
       <c r="AP73">
-        <v>0.0433245194611101</v>
+        <v>0.1787244023899122</v>
       </c>
       <c r="AQ73">
-        <v>0.06465435084359898</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR73">
-        <v>0.1070932685752052</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS73">
-        <v>-0.04638725981378089</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT73">
-        <v>-0.04835835199243815</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU73">
-        <v>-0.05240184130703002</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV73">
-        <v>-0.1152283597503863</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW73">
-        <v>-0.02219884340202027</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX73">
-        <v>-0.0577421300680567</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY73">
-        <v>-0.08261720430245729</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ73">
-        <v>-0.1068176387908719</v>
-      </c>
-      <c r="BA73">
         <v>-0.1051295019602515</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.07601515662626024</v>
-      </c>
-      <c r="AL74">
-        <v>0.1467643885899772</v>
-      </c>
-      <c r="AM74">
-        <v>0.07795212891221498</v>
-      </c>
-      <c r="AN74">
-        <v>0.1011735067438169</v>
-      </c>
-      <c r="AO74">
-        <v>-0.03036423583519807</v>
-      </c>
-      <c r="AP74">
-        <v>0.0433245194611101</v>
-      </c>
       <c r="AQ74">
-        <v>0.06465435084359898</v>
+        <v>0.1241013475703926</v>
       </c>
       <c r="AR74">
-        <v>0.1070932685752052</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS74">
-        <v>-0.04738098344615582</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT74">
-        <v>-0.0495402900845433</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU74">
-        <v>-0.05355896295959539</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV74">
-        <v>-0.1153754198081422</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW74">
-        <v>-0.03912880753781264</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX74">
-        <v>-0.05098809096008064</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY74">
-        <v>-0.08223658315428213</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ74">
-        <v>-0.05175635427623342</v>
-      </c>
-      <c r="BA74">
-        <v>-0.0512833435461502</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.07601515662626024</v>
-      </c>
-      <c r="AL75">
-        <v>0.1467643885899772</v>
-      </c>
-      <c r="AM75">
-        <v>0.07795212891221498</v>
-      </c>
-      <c r="AN75">
-        <v>0.1011735067438169</v>
-      </c>
-      <c r="AO75">
-        <v>-0.03036423583519807</v>
-      </c>
-      <c r="AP75">
-        <v>0.0433245194611101</v>
-      </c>
-      <c r="AQ75">
-        <v>0.06465435084359898</v>
-      </c>
       <c r="AR75">
-        <v>0.1070932685752052</v>
+        <v>-0.009486676445854745</v>
       </c>
       <c r="AS75">
-        <v>-0.01136409777173774</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT75">
-        <v>-0.0003636852802516154</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU75">
-        <v>-0.02964325241855635</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV75">
-        <v>0.01947572448911095</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW75">
-        <v>-0.03143794270944608</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX75">
-        <v>-0.06773296332091031</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY75">
-        <v>-0.08366254274357127</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ75">
-        <v>-0.01080002906529009</v>
-      </c>
-      <c r="BA75">
-        <v>-0.01036947693345963</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.07601515662626024</v>
-      </c>
-      <c r="AL76">
-        <v>0.1467643885899772</v>
-      </c>
-      <c r="AM76">
-        <v>0.07795212891221498</v>
-      </c>
-      <c r="AN76">
-        <v>0.1011735067438169</v>
-      </c>
-      <c r="AO76">
-        <v>-0.03036423583519807</v>
-      </c>
-      <c r="AP76">
-        <v>0.0433245194611101</v>
-      </c>
-      <c r="AQ76">
-        <v>0.06465435084359898</v>
-      </c>
-      <c r="AR76">
-        <v>0.1070932685752052</v>
-      </c>
       <c r="AS76">
-        <v>-0.01136409777173774</v>
+        <v>0.06706833231642502</v>
       </c>
       <c r="AT76">
-        <v>-0.0003636852802516154</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU76">
-        <v>-0.02964325241855635</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV76">
-        <v>0.01947572448911095</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW76">
-        <v>-0.05137348034012257</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX76">
-        <v>-0.06234527590047609</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY76">
-        <v>-0.05316920699206065</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ76">
-        <v>-0.001843737716275468</v>
-      </c>
-      <c r="BA76">
-        <v>-0.0001935139967256527</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>-0.03036423583519807</v>
-      </c>
-      <c r="AP77">
-        <v>0.0433245194611101</v>
-      </c>
-      <c r="AQ77">
-        <v>0.06465435084359898</v>
-      </c>
-      <c r="AR77">
-        <v>0.1070932685752052</v>
-      </c>
-      <c r="AS77">
-        <v>-0.01136409777173774</v>
-      </c>
       <c r="AT77">
-        <v>-0.0003636852802516154</v>
+        <v>0.01010241107559857</v>
       </c>
       <c r="AU77">
-        <v>-0.02964325241855635</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV77">
-        <v>0.01947572448911095</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW77">
-        <v>-0.05834206225462621</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX77">
-        <v>-0.05536442337604136</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY77">
-        <v>-0.03623907024767829</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ77">
-        <v>0.0291747735850228</v>
-      </c>
-      <c r="BA77">
-        <v>0.03023811067352077</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>-0.03036423583519807</v>
-      </c>
-      <c r="AP78">
-        <v>0.0433245194611101</v>
-      </c>
-      <c r="AQ78">
-        <v>0.06465435084359898</v>
-      </c>
-      <c r="AR78">
-        <v>0.1070932685752052</v>
-      </c>
-      <c r="AS78">
-        <v>-0.01136409777173774</v>
-      </c>
-      <c r="AT78">
-        <v>-0.0003636852802516154</v>
-      </c>
       <c r="AU78">
-        <v>-0.02964325241855635</v>
+        <v>0.05783737868831077</v>
       </c>
       <c r="AV78">
-        <v>0.01947572448911095</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW78">
-        <v>-0.05539869747975262</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX78">
-        <v>-0.05681957144201197</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY78">
-        <v>-0.03618200884957322</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ78">
-        <v>0.02920950495857846</v>
-      </c>
-      <c r="BA78">
-        <v>0.03028818005484387</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>-0.03036423583519807</v>
-      </c>
-      <c r="AP79">
-        <v>0.0433245194611101</v>
-      </c>
-      <c r="AQ79">
-        <v>0.06465435084359898</v>
-      </c>
-      <c r="AR79">
-        <v>0.1070932685752052</v>
-      </c>
-      <c r="AS79">
-        <v>-0.01136409777173774</v>
-      </c>
-      <c r="AT79">
-        <v>-0.0003636852802516154</v>
-      </c>
-      <c r="AU79">
-        <v>-0.02964325241855635</v>
-      </c>
       <c r="AV79">
-        <v>0.01947572448911095</v>
+        <v>0.09675421950636921</v>
       </c>
       <c r="AW79">
-        <v>-0.03560836396095669</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX79">
-        <v>-0.03717942216222743</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY79">
-        <v>-0.06044335295690904</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ79">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA79">
-        <v>-0.003272573245561683</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>-0.03036423583519807</v>
-      </c>
-      <c r="AP80">
-        <v>0.0433245194611101</v>
-      </c>
-      <c r="AQ80">
-        <v>0.06465435084359898</v>
-      </c>
-      <c r="AR80">
-        <v>0.1070932685752052</v>
-      </c>
-      <c r="AS80">
-        <v>-0.01136409777173774</v>
-      </c>
-      <c r="AT80">
-        <v>-0.0003636852802516154</v>
-      </c>
-      <c r="AU80">
-        <v>-0.02964325241855635</v>
-      </c>
-      <c r="AV80">
-        <v>0.01947572448911095</v>
-      </c>
       <c r="AW80">
-        <v>-0.03560836396095669</v>
+        <v>0.1249049564133267</v>
       </c>
       <c r="AX80">
-        <v>-0.03717942216222743</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY80">
-        <v>-0.06044335295690904</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ80">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA80">
-        <v>-0.003938665823812776</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>-0.01136409777173774</v>
-      </c>
-      <c r="AT81">
-        <v>-0.0003636852802516154</v>
-      </c>
-      <c r="AU81">
-        <v>-0.02964325241855635</v>
-      </c>
-      <c r="AV81">
-        <v>0.01947572448911095</v>
-      </c>
-      <c r="AW81">
-        <v>-0.03560836396095669</v>
-      </c>
       <c r="AX81">
-        <v>-0.03717942216222743</v>
+        <v>0.1000523264510029</v>
       </c>
       <c r="AY81">
-        <v>-0.06044335295690904</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ81">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA81">
-        <v>-0.02964513896696676</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>-0.01136409777173774</v>
-      </c>
-      <c r="AT82">
-        <v>-0.0003636852802516154</v>
-      </c>
-      <c r="AU82">
-        <v>-0.02964325241855635</v>
-      </c>
-      <c r="AV82">
-        <v>0.01947572448911095</v>
-      </c>
-      <c r="AW82">
-        <v>-0.03560836396095669</v>
-      </c>
-      <c r="AX82">
-        <v>-0.03717942216222743</v>
-      </c>
       <c r="AY82">
-        <v>-0.06044335295690904</v>
+        <v>0.01638785687426421</v>
       </c>
       <c r="AZ82">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA82">
-        <v>-0.02966156330908004</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>-0.01136409777173774</v>
-      </c>
-      <c r="AT83">
-        <v>-0.0003636852802516154</v>
-      </c>
-      <c r="AU83">
-        <v>-0.02964325241855635</v>
-      </c>
-      <c r="AV83">
-        <v>0.01947572448911095</v>
-      </c>
-      <c r="AW83">
-        <v>-0.03560836396095669</v>
-      </c>
-      <c r="AX83">
-        <v>-0.03717942216222743</v>
-      </c>
-      <c r="AY83">
-        <v>-0.06044335295690904</v>
-      </c>
       <c r="AZ83">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA83">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>-0.01136409777173774</v>
-      </c>
-      <c r="AT84">
-        <v>-0.0003636852802516154</v>
-      </c>
-      <c r="AU84">
-        <v>-0.02964325241855635</v>
-      </c>
-      <c r="AV84">
-        <v>0.01947572448911095</v>
-      </c>
-      <c r="AW84">
-        <v>-0.03560836396095669</v>
-      </c>
-      <c r="AX84">
-        <v>-0.03717942216222743</v>
-      </c>
-      <c r="AY84">
-        <v>-0.06044335295690904</v>
-      </c>
-      <c r="AZ84">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA84">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>-0.03560836396095669</v>
-      </c>
-      <c r="AX85">
-        <v>-0.03717942216222743</v>
-      </c>
-      <c r="AY85">
-        <v>-0.06044335295690904</v>
-      </c>
-      <c r="AZ85">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA85">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>-0.03560836396095669</v>
-      </c>
-      <c r="AX86">
-        <v>-0.03717942216222743</v>
-      </c>
-      <c r="AY86">
-        <v>-0.06044335295690904</v>
-      </c>
-      <c r="AZ86">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA86">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>-0.03560836396095669</v>
-      </c>
-      <c r="AX87">
-        <v>-0.03717942216222743</v>
-      </c>
-      <c r="AY87">
-        <v>-0.06044335295690904</v>
-      </c>
-      <c r="AZ87">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA87">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>-0.03560836396095669</v>
-      </c>
-      <c r="AX88">
-        <v>-0.03717942216222743</v>
-      </c>
-      <c r="AY88">
-        <v>-0.06044335295690904</v>
-      </c>
-      <c r="AZ88">
-        <v>-0.04981320203370253</v>
-      </c>
-      <c r="BA88">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>-0.01729674870536436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>-0.01729674870536436</v>
+        <v>-0.0313312662568324</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9224,7 +9224,7 @@
         <v>-0.15</v>
       </c>
       <c r="AG64">
-        <v>2.03040224812923</v>
+        <v>-0.48</v>
       </c>
       <c r="AH64">
         <v>3.9</v>
@@ -9316,10 +9316,10 @@
         <v>-0.15</v>
       </c>
       <c r="AG65">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH65">
-        <v>0.4339050167294337</v>
+        <v>-0.1</v>
       </c>
       <c r="AI65">
         <v>0.6</v>
@@ -9405,13 +9405,13 @@
         <v>-0.15</v>
       </c>
       <c r="AG66">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH66">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI66">
-        <v>1.197090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ66">
         <v>-0.6</v>
@@ -9491,16 +9491,16 @@
         <v>-0.15</v>
       </c>
       <c r="AG67">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH67">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI67">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ67">
-        <v>-0.6441697788099752</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK67">
         <v>-0.6</v>
@@ -9574,19 +9574,19 @@
         <v>-0.15</v>
       </c>
       <c r="AG68">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH68">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI68">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ68">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK68">
-        <v>0.4901411037136303</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL68">
         <v>-0.2</v>
@@ -9654,22 +9654,22 @@
         <v>-0.15</v>
       </c>
       <c r="AG69">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH69">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI69">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ69">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK69">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL69">
-        <v>-0.09098140646410988</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM69">
         <v>0.2</v>
@@ -9731,25 +9731,25 @@
         <v>-0.15</v>
       </c>
       <c r="AG70">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH70">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI70">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ70">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK70">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL70">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM70">
-        <v>-0.3952916234765647</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN70">
         <v>-1.4</v>
@@ -9805,28 +9805,28 @@
         <v>-0.15</v>
       </c>
       <c r="AG71">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH71">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI71">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ71">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK71">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL71">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM71">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN71">
-        <v>-0.2380782088493735</v>
+        <v>-0.19</v>
       </c>
       <c r="AO71">
         <v>-0.6</v>
@@ -9876,31 +9876,31 @@
         <v>-0.15</v>
       </c>
       <c r="AG72">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH72">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI72">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ72">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK72">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL72">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM72">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN72">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO72">
-        <v>-0.02511582766690132</v>
+        <v>-0.12</v>
       </c>
       <c r="AP72">
         <v>-0.1</v>
@@ -9944,34 +9944,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>-0.276959775187077</v>
+        <v>-0.48</v>
       </c>
       <c r="AH73">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI73">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ73">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK73">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL73">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM73">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN73">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO73">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP73">
-        <v>0.6876823391013496</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ73">
         <v>0.1</v>
@@ -10011,38 +10011,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>-0.276959775187077</v>
-      </c>
       <c r="AH74">
-        <v>-0.01660949832705664</v>
+        <v>-0.1</v>
       </c>
       <c r="AI74">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ74">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK74">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL74">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM74">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN74">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO74">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP74">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ74">
-        <v>0.3720617293507145</v>
+        <v>0.29</v>
       </c>
       <c r="AR74">
         <v>0.7</v>
@@ -10079,38 +10076,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>-0.01660949832705664</v>
-      </c>
       <c r="AI75">
-        <v>0.1997090680270919</v>
+        <v>0.01000000000000004</v>
       </c>
       <c r="AJ75">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK75">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL75">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM75">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN75">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO75">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP75">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ75">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR75">
-        <v>-0.1123255314657629</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS75">
         <v>-0.6</v>
@@ -10144,38 +10138,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.1997090680270919</v>
-      </c>
       <c r="AJ76">
-        <v>-0.01441697788099751</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AK76">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL76">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM76">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN76">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO76">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP76">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ76">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR76">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS76">
-        <v>-0.1387895598915543</v>
+        <v>-0.14</v>
       </c>
       <c r="AT76">
         <v>0.2</v>
@@ -10206,38 +10197,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>-0.01441697788099751</v>
-      </c>
       <c r="AK77">
-        <v>-0.02098588962863698</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="AL77">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM77">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN77">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO77">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP77">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ77">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR77">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS77">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT77">
-        <v>0.1213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -10265,38 +10253,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>-0.02098588962863698</v>
-      </c>
       <c r="AL78">
-        <v>-0.039098140646411</v>
+        <v>-0.08000000000000003</v>
       </c>
       <c r="AM78">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN78">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO78">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP78">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ78">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR78">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS78">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT78">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU78">
-        <v>-0.07951810869463416</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV78">
         <v>0.3</v>
@@ -10321,38 +10306,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>-0.039098140646411</v>
-      </c>
       <c r="AM79">
-        <v>-0.06952916234765649</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="AN79">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO79">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP79">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ79">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR79">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS79">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT79">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU79">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV79">
-        <v>0.3863682696630121</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW79">
         <v>-0.1</v>
@@ -10374,38 +10356,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>-0.06952916234765649</v>
-      </c>
       <c r="AN80">
-        <v>-0.1738078208849373</v>
+        <v>-0.19</v>
       </c>
       <c r="AO80">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP80">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ80">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR80">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS80">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT80">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU80">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV80">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW80">
-        <v>-0.006123215295980228</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX80">
         <v>-0.9</v>
@@ -10424,38 +10403,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>-0.1738078208849373</v>
-      </c>
       <c r="AO81">
-        <v>-0.01251158276669016</v>
+        <v>-0.12</v>
       </c>
       <c r="AP81">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ81">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR81">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS81">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT81">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU81">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV81">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW81">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX81">
-        <v>0.04342916022020096</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY81">
         <v>-1.2</v>
@@ -10471,38 +10447,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>-0.01251158276669016</v>
-      </c>
       <c r="AP82">
-        <v>0.3187682339101349</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="AQ82">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR82">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS82">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT82">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU82">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV82">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW82">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX82">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY82">
-        <v>-0.2736421272901388</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ82">
         <v>0.9</v>
@@ -10515,38 +10488,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.3187682339101349</v>
-      </c>
       <c r="AQ83">
-        <v>-0.05279382706492854</v>
+        <v>0.29</v>
       </c>
       <c r="AR83">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS83">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT83">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU83">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV83">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW83">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX83">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY83">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ83">
-        <v>-0.1489623566660376</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA83">
         <v>-0.7</v>
@@ -10556,253 +10526,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>-0.05279382706492854</v>
-      </c>
       <c r="AR84">
-        <v>-0.1112325531465763</v>
+        <v>-0.03000000000000001</v>
       </c>
       <c r="AS84">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT84">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU84">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV84">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW84">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX84">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY84">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ84">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA84">
-        <v>-0.1051295019602515</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>-0.1112325531465763</v>
-      </c>
       <c r="AS85">
-        <v>-0.06387895598915545</v>
+        <v>-0.14</v>
       </c>
       <c r="AT85">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU85">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV85">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW85">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX85">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY85">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ85">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA85">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>-0.06387895598915545</v>
-      </c>
       <c r="AT86">
-        <v>0.02213803088128225</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="AU86">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV86">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW86">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX86">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY86">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ86">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA86">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.02213803088128225</v>
-      </c>
       <c r="AU87">
-        <v>0.03204818913053657</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="AV87">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW87">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX87">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY87">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ87">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA87">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.03204818913053657</v>
-      </c>
       <c r="AV88">
-        <v>0.1186368269663012</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AW88">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX88">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY88">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ88">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA88">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.1186368269663012</v>
-      </c>
       <c r="AW89">
-        <v>0.05938767847040197</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="AX89">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY89">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ89">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA89">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.05938767847040197</v>
-      </c>
       <c r="AX90">
-        <v>0.01434291602202009</v>
+        <v>-0.06000000000000001</v>
       </c>
       <c r="AY90">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ90">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA90">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.01434291602202009</v>
-      </c>
       <c r="AY91">
-        <v>-0.1173642127290139</v>
+        <v>-0.13</v>
       </c>
       <c r="AZ91">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA91">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>-0.1173642127290139</v>
-      </c>
       <c r="AZ92">
-        <v>-0.05489623566660379</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="BA92">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>-0.05489623566660379</v>
-      </c>
       <c r="BA93">
-        <v>-0.2505129501960252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>-0.2505129501960252</v>
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="BA2">
         <v>0.8</v>
       </c>
+      <c r="BB2">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="BA3">
         <v>-0.1</v>
       </c>
+      <c r="BB3">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="BA4">
         <v>0.4</v>
       </c>
+      <c r="BB4">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1176,8 +1188,11 @@
       <c r="BA5">
         <v>-1.1</v>
       </c>
+      <c r="BB5">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="BA6">
         <v>-1.7</v>
       </c>
+      <c r="BB6">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="BA7">
         <v>-2.7</v>
       </c>
+      <c r="BB7">
+        <v>-2.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="BA8">
         <v>1.7</v>
       </c>
+      <c r="BB8">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BA9">
         <v>-0.2</v>
       </c>
+      <c r="BB9">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="BA10">
         <v>1.3</v>
       </c>
+      <c r="BB10">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2142,8 +2172,11 @@
       <c r="BA11">
         <v>-0.8</v>
       </c>
+      <c r="BB11">
+        <v>-0.8</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="BA12">
         <v>0.8</v>
       </c>
+      <c r="BB12">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2458,8 +2494,11 @@
       <c r="BA13">
         <v>0.5</v>
       </c>
+      <c r="BB13">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2613,8 +2652,11 @@
       <c r="BA14">
         <v>0.2</v>
       </c>
+      <c r="BB14">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2768,8 +2810,11 @@
       <c r="BA15">
         <v>0.2</v>
       </c>
+      <c r="BB15">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2920,8 +2965,11 @@
       <c r="BA16">
         <v>-0.7</v>
       </c>
+      <c r="BB16">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -3072,8 +3120,11 @@
       <c r="BA17">
         <v>0.2000000000000001</v>
       </c>
+      <c r="BB17">
+        <v>0.2000000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3221,8 +3272,11 @@
       <c r="BA18">
         <v>0.1</v>
       </c>
+      <c r="BB18">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="BA19">
         <v>0.7</v>
       </c>
+      <c r="BB19">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3516,8 +3573,11 @@
       <c r="BA20">
         <v>0.7</v>
       </c>
+      <c r="BB20">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3662,8 +3722,11 @@
       <c r="BA21">
         <v>0.5</v>
       </c>
+      <c r="BB21">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3805,8 +3868,11 @@
       <c r="BA22">
         <v>-1.1</v>
       </c>
+      <c r="BB22">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3948,8 +4014,11 @@
       <c r="BA23">
         <v>0</v>
       </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -4088,8 +4157,11 @@
       <c r="BA24">
         <v>0</v>
       </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4228,8 +4300,11 @@
       <c r="BA25">
         <v>-0.6</v>
       </c>
+      <c r="BB25">
+        <v>-0.6</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4365,8 +4440,11 @@
       <c r="BA26">
         <v>0.6</v>
       </c>
+      <c r="BB26">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4502,8 +4580,11 @@
       <c r="BA27">
         <v>-0.1</v>
       </c>
+      <c r="BB27">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4636,8 +4717,11 @@
       <c r="BA28">
         <v>-0.2</v>
       </c>
+      <c r="BB28">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="BA29">
         <v>0.5</v>
       </c>
+      <c r="BB29">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4901,8 +4988,11 @@
       <c r="BA30">
         <v>-0.2</v>
       </c>
+      <c r="BB30">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -5032,8 +5122,11 @@
       <c r="BA31">
         <v>-0.1</v>
       </c>
+      <c r="BB31">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5160,8 +5253,11 @@
       <c r="BA32">
         <v>0.6</v>
       </c>
+      <c r="BB32">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5288,8 +5384,11 @@
       <c r="BA33">
         <v>-0.5</v>
       </c>
+      <c r="BB33">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5413,8 +5512,11 @@
       <c r="BA34">
         <v>-0.5</v>
       </c>
+      <c r="BB34">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5538,8 +5640,11 @@
       <c r="BA35">
         <v>0.1</v>
       </c>
+      <c r="BB35">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5660,8 +5765,11 @@
       <c r="BA36">
         <v>0.4</v>
       </c>
+      <c r="BB36">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5782,8 +5890,11 @@
       <c r="BA37">
         <v>-0.4</v>
       </c>
+      <c r="BB37">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5901,8 +6012,11 @@
       <c r="BA38">
         <v>-0.2</v>
       </c>
+      <c r="BB38">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -6020,8 +6134,11 @@
       <c r="BA39">
         <v>0.5</v>
       </c>
+      <c r="BB39">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -6136,8 +6253,11 @@
       <c r="BA40">
         <v>-0.4</v>
       </c>
+      <c r="BB40">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6252,8 +6372,11 @@
       <c r="BA41">
         <v>0.4</v>
       </c>
+      <c r="BB41">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6365,8 +6488,11 @@
       <c r="BA42">
         <v>0.5</v>
       </c>
+      <c r="BB42">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6478,8 +6604,11 @@
       <c r="BA43">
         <v>0</v>
       </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6588,8 +6717,11 @@
       <c r="BA44">
         <v>-0.4</v>
       </c>
+      <c r="BB44">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6698,8 +6830,11 @@
       <c r="BA45">
         <v>-0.7</v>
       </c>
+      <c r="BB45">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6805,8 +6940,11 @@
       <c r="BA46">
         <v>-0.2</v>
       </c>
+      <c r="BB46">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6912,8 +7050,11 @@
       <c r="BA47">
         <v>0.2</v>
       </c>
+      <c r="BB47">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -7016,8 +7157,11 @@
       <c r="BA48">
         <v>-0.5</v>
       </c>
+      <c r="BB48">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="BA49">
         <v>0.8</v>
       </c>
+      <c r="BB49">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7221,8 +7368,11 @@
       <c r="BA50">
         <v>-0.4</v>
       </c>
+      <c r="BB50">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7322,8 +7472,11 @@
       <c r="BA51">
         <v>-1.1</v>
       </c>
+      <c r="BB51">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7420,8 +7573,11 @@
       <c r="BA52">
         <v>-2.4</v>
       </c>
+      <c r="BB52">
+        <v>-2.4</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7515,8 +7671,11 @@
       <c r="BA53">
         <v>3.8</v>
       </c>
+      <c r="BB53">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7607,8 +7766,11 @@
       <c r="BA54">
         <v>0.7</v>
       </c>
+      <c r="BB54">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7696,8 +7858,11 @@
       <c r="BA55">
         <v>-0.9</v>
       </c>
+      <c r="BB55">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7782,8 +7947,11 @@
       <c r="BA56">
         <v>-0.2</v>
       </c>
+      <c r="BB56">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7865,8 +8033,11 @@
       <c r="BA57">
         <v>-0.1</v>
       </c>
+      <c r="BB57">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7945,8 +8116,11 @@
       <c r="BA58">
         <v>0.1</v>
       </c>
+      <c r="BB58">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8022,8 +8196,11 @@
       <c r="BA59">
         <v>0</v>
       </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -8096,8 +8273,11 @@
       <c r="BA60">
         <v>-0.7</v>
       </c>
+      <c r="BB60">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8167,8 +8347,11 @@
       <c r="BA61">
         <v>-0.4</v>
       </c>
+      <c r="BB61">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8235,8 +8418,11 @@
       <c r="BA62">
         <v>0.5</v>
       </c>
+      <c r="BB62">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8300,8 +8486,11 @@
       <c r="BA63">
         <v>0.8</v>
       </c>
+      <c r="BB63">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8362,8 +8551,11 @@
       <c r="BA64">
         <v>-0.4</v>
       </c>
+      <c r="BB64">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8421,8 +8613,11 @@
       <c r="BA65">
         <v>0.4</v>
       </c>
+      <c r="BB65">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8477,8 +8672,11 @@
       <c r="BA66">
         <v>0.3</v>
       </c>
+      <c r="BB66">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8530,8 +8728,11 @@
       <c r="BA67">
         <v>0.1</v>
       </c>
+      <c r="BB67">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8580,8 +8781,11 @@
       <c r="BA68">
         <v>-0.3</v>
       </c>
+      <c r="BB68">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8627,8 +8831,11 @@
       <c r="BA69">
         <v>-1.1</v>
       </c>
+      <c r="BB69">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8671,8 +8878,11 @@
       <c r="BA70">
         <v>-1.1</v>
       </c>
+      <c r="BB70">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8712,8 +8922,11 @@
       <c r="BA71">
         <v>0.4</v>
       </c>
+      <c r="BB71">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8750,8 +8963,11 @@
       <c r="BA72">
         <v>-0.7</v>
       </c>
+      <c r="BB72">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8785,8 +9001,11 @@
       <c r="BA73">
         <v>-0.16</v>
       </c>
+      <c r="BB73">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8817,8 +9036,11 @@
       <c r="BA74">
         <v>-0.16</v>
       </c>
+      <c r="BB74">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8846,8 +9068,11 @@
       <c r="BA75">
         <v>-0.16</v>
       </c>
+      <c r="BB75">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8872,8 +9097,11 @@
       <c r="BA76">
         <v>-0.16</v>
       </c>
+      <c r="BB76">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8895,8 +9123,11 @@
       <c r="BA77">
         <v>-0.16</v>
       </c>
+      <c r="BB77">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8915,8 +9146,11 @@
       <c r="BA78">
         <v>-0.16</v>
       </c>
+      <c r="BB78">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8932,8 +9166,11 @@
       <c r="BA79">
         <v>-0.16</v>
       </c>
+      <c r="BB79">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8946,8 +9183,11 @@
       <c r="BA80">
         <v>-0.16</v>
       </c>
+      <c r="BB80">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8957,13 +9197,27 @@
       <c r="BA81">
         <v>-0.16</v>
       </c>
+      <c r="BB81">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>-0.16</v>
+      </c>
+      <c r="BB82">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
